--- a/spreadSheet/02_함수(20문제).xlsx
+++ b/spreadSheet/02_함수(20문제).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missi\OneDrive\문서\00_유튜브 강의\02_컴활1급실기\00_유튜브 라이브 강의\01_스프레드시트\02일차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mondi\Desktop\Craftsman_Information_Processing\spreadSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0474296-9073-49AC-A36B-0A07B3005EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="6570" tabRatio="888" activeTab="6"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈" sheetId="46" r:id="rId1"/>
@@ -86,10 +87,21 @@
     <definedName name="판매액">'[1]시나리오1(예제)'!$B$8</definedName>
     <definedName name="학생수">'[3]서식(결과)'!$G$5:$H$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -699,7 +711,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -980,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,7 +1011,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1026,7 +1038,7 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1101,16 +1113,13 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1134,10 +1143,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1157,10 @@
     <cellStyle name="강조색2" xfId="8" builtinId="33"/>
     <cellStyle name="백분율" xfId="9" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="7"/>
+    <cellStyle name="쉼표 [0] 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="6"/>
+    <cellStyle name="표준 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1183,7 +1192,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1225,7 +1240,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1285,7 +1306,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="꺾인 연결선 3"/>
+        <xdr:cNvPr id="4" name="꺾인 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="6" idx="1"/>
@@ -1340,7 +1367,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="그룹 4"/>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1353,7 +1386,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1450,7 +1489,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="직사각형 6"/>
+          <xdr:cNvPr id="7" name="직사각형 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1509,7 +1554,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 7"/>
+        <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1614,7 +1665,13 @@
     <xdr:ext cx="1607748" cy="865878"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1700,7 +1757,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvPr id="10" name="타원 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1755,7 +1818,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1793,7 +1862,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvPr id="14" name="직사각형 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1853,7 +1928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="직각 삼각형 14"/>
+        <xdr:cNvPr id="15" name="직각 삼각형 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1915,7 +1996,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="직각 삼각형 15"/>
+        <xdr:cNvPr id="16" name="직각 삼각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1977,7 +2064,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="그룹 16"/>
+        <xdr:cNvPr id="17" name="그룹 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1993,7 +2086,7 @@
           <xdr:cNvPr id="18" name="TextBox 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958184CB-9BA8-4C2F-B79C-556290E81BD5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2154,7 +2247,7 @@
           <xdr:cNvPr id="19" name="그룹 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFDB95A-3DDC-49A7-9CB9-393E3434E1B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2173,7 +2266,7 @@
             <xdr:cNvPr id="20" name="그룹 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB180C7-6B2B-42E4-AD32-3EB33563B8E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2192,7 +2285,7 @@
               <xdr:cNvPr id="28" name="타원 27">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78E1CC8-FE2D-4FA3-8711-71ABADA732A3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2341,7 +2434,7 @@
               <xdr:cNvPr id="29" name="타원 28">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6B1C04-AC60-473C-80C5-0549BCD8D07C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2490,7 +2583,7 @@
               <xdr:cNvPr id="30" name="그룹 29">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E679A3E8-1068-44E7-8876-6B31C8678732}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -2509,7 +2602,7 @@
                 <xdr:cNvPr id="31" name="타원 30">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B187E0AF-EC92-4EE5-96D5-7FC3D2477157}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2658,7 +2751,7 @@
                 <xdr:cNvPr id="32" name="자유형: 도형 39">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574F742F-9381-4B45-A083-37500659EB6A}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -2880,7 +2973,7 @@
                 <xdr:cNvPr id="33" name="직사각형 32">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF501908-B9FA-4B1E-AC58-97AA9DD23A81}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -3031,7 +3124,7 @@
             <xdr:cNvPr id="21" name="그룹 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C3FE16-4ED2-4F04-BA61-890D6272DF90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3052,7 +3145,7 @@
               <xdr:cNvPr id="22" name="타원 21">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB0E216-80FA-440F-BB88-F890F8FA3DC3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3201,7 +3294,7 @@
               <xdr:cNvPr id="23" name="타원 22">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADE8562-5C7C-48A4-A191-20D943F13A94}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3350,7 +3443,7 @@
               <xdr:cNvPr id="24" name="직사각형 23">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA10174-A5F9-4D91-9733-D3B959EE9899}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3499,7 +3592,7 @@
               <xdr:cNvPr id="25" name="직사각형 24">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968452DB-7360-468B-BF0E-7A8795FF6089}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3648,7 +3741,7 @@
               <xdr:cNvPr id="26" name="직사각형 25">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C78344-76FC-4B18-BEC5-3F0FC7D0FF05}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3797,7 +3890,7 @@
               <xdr:cNvPr id="27" name="그래픽 47">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A5625F-D3AB-421B-9A56-E03E74FD54BF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3809,7 +3902,7 @@
               <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
                 <a:extLst>
                   <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                    <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" r:embed="rId5"/>
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
                   </a:ext>
                 </a:extLst>
               </a:blip>
@@ -3842,7 +3935,13 @@
     <xdr:ext cx="4392613" cy="336246"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3905,7 +4004,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="홈"/>
@@ -4196,7 +4295,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1학년입력"/>
@@ -5810,7 +5909,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="입력"/>
@@ -6270,7 +6369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6288,11 +6387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -6369,15 +6468,24 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(C4,$J$4:$L$7,2,0),"-",VLOOKUP(C4,$J$4:$L$7,3,0))</f>
+        <v>기본형-남자</v>
+      </c>
+      <c r="E4" s="2">
+        <f>INDEX($K$12:$R$15,MATCH(C4,$J$12:$J$15,0),MATCH(B4,$K$10:$R$10,1))</f>
+        <v>13200</v>
+      </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="str">
+        <f>TEXT(HLOOKUP(B4,$K$10:$R$15,MATCH(C4,$J$12:$J$15,0)+2,1)*G4/100,"[=0]없음;[&gt;0]0원")</f>
+        <v>396원</v>
+      </c>
       <c r="J4" s="12" t="s">
         <v>64</v>
       </c>
@@ -6401,15 +6509,24 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ref="D5:D39" si="0">CONCATENATE(VLOOKUP(C5,$J$4:$L$7,2,0),"-",VLOOKUP(C5,$J$4:$L$7,3,0))</f>
+        <v>기본형-여자</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E39" si="1">INDEX($K$12:$R$15,MATCH(C5,$J$12:$J$15,0),MATCH(B5,$K$10:$R$10,1))</f>
+        <v>22500</v>
+      </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="str">
+        <f t="shared" ref="H5:H39" si="2">TEXT(HLOOKUP(B5,$K$10:$R$15,MATCH(C5,$J$12:$J$15,0)+2,1)*G5/100,"[=0]없음;[&gt;0]0원")</f>
+        <v>없음</v>
+      </c>
       <c r="J5" s="12" t="s">
         <v>67</v>
       </c>
@@ -6433,15 +6550,24 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-남자</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
       <c r="F6" s="1">
         <v>15</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
       <c r="J6" s="12" t="s">
         <v>69</v>
       </c>
@@ -6465,15 +6591,24 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>14200</v>
+      </c>
       <c r="F7" s="1">
         <v>15</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
       <c r="J7" s="12" t="s">
         <v>72</v>
       </c>
@@ -6497,15 +6632,24 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>28400</v>
+      </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>284원</v>
+      </c>
       <c r="J8" s="13"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -6523,15 +6667,24 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
       <c r="J9" s="10" t="s">
         <v>104</v>
       </c>
@@ -6551,15 +6704,24 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-남자</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
       <c r="F10" s="1">
         <v>14</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>240원</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="19">
         <v>0</v>
@@ -6593,15 +6755,24 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>12900</v>
+      </c>
       <c r="F11" s="1">
         <v>5</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>129원</v>
+      </c>
       <c r="J11" s="20"/>
       <c r="K11" s="21">
         <v>10</v>
@@ -6633,15 +6804,24 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-남자</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>12800</v>
+      </c>
       <c r="F12" s="1">
         <v>6</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>128원</v>
+      </c>
       <c r="J12" s="36" t="s">
         <v>64</v>
       </c>
@@ -6677,15 +6857,24 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-남자</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>33000</v>
+      </c>
       <c r="F13" s="1">
         <v>8</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
       <c r="J13" s="36" t="s">
         <v>74</v>
       </c>
@@ -6721,15 +6910,24 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-남자</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>19800</v>
+      </c>
       <c r="F14" s="1">
         <v>8</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>396원</v>
+      </c>
       <c r="J14" s="36" t="s">
         <v>69</v>
       </c>
@@ -6765,15 +6963,24 @@
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-남자</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>13200</v>
+      </c>
       <c r="F15" s="1">
         <v>21</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
       <c r="J15" s="36" t="s">
         <v>75</v>
       </c>
@@ -6809,15 +7016,24 @@
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-남자</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>12800</v>
+      </c>
       <c r="F16" s="1">
         <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="1">
@@ -6826,15 +7042,24 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-여자</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
       <c r="F17" s="1">
         <v>21</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>270원</v>
+      </c>
       <c r="J17" s="15" t="s">
         <v>77</v>
       </c>
@@ -6846,15 +7071,24 @@
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-남자</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>13700</v>
+      </c>
       <c r="F18" s="1">
         <v>20</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
       <c r="J18" s="23" t="s">
         <v>78</v>
       </c>
@@ -6872,20 +7106,35 @@
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>12900</v>
+      </c>
       <c r="F19" s="1">
         <v>8</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
       <c r="J19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="K19" s="9">
+        <f>ROUNDDOWN(AVERAGEIF($C$4:$C$39,$J19,F$4:F$39),2)</f>
+        <v>11.55</v>
+      </c>
+      <c r="L19" s="9">
+        <f>ROUNDDOWN(AVERAGEIF($C$4:$C$39,$J19,G$4:G$39),2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="1">
@@ -6894,20 +7143,35 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-남자</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>13200</v>
+      </c>
       <c r="F20" s="1">
         <v>24</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
       <c r="J20" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="9">
+        <f t="shared" ref="K20:L22" si="3">ROUNDDOWN(AVERAGEIF($C$4:$C$39,$J20,F$4:F$39),2)</f>
+        <v>10.87</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1200000000000001</v>
+      </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="1">
@@ -6916,20 +7180,35 @@
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-여자</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>32200</v>
+      </c>
       <c r="F21" s="1">
         <v>23</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>322원</v>
+      </c>
       <c r="J21" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="9">
+        <f t="shared" si="3"/>
+        <v>14.28</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="3"/>
+        <v>1.28</v>
+      </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="1">
@@ -6938,20 +7217,35 @@
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-여자</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
       <c r="F22" s="1">
         <v>20</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>252원</v>
+      </c>
       <c r="J22" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="9">
+        <f t="shared" si="3"/>
+        <v>12.75</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="1">
@@ -6960,15 +7254,24 @@
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>43900</v>
+      </c>
       <c r="F23" s="1">
         <v>7</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="1">
@@ -6977,15 +7280,24 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-남자</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>13200</v>
+      </c>
       <c r="F24" s="1">
         <v>17</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>264원</v>
+      </c>
       <c r="J24" t="s">
         <v>105</v>
       </c>
@@ -6997,15 +7309,24 @@
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-여자</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
       <c r="F25" s="1">
         <v>21</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>252원</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="16">
         <v>0</v>
@@ -7036,15 +7357,24 @@
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-남자</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>13700</v>
+      </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>274원</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="17">
         <v>10</v>
@@ -7075,25 +7405,55 @@
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-남자</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>13700</v>
+      </c>
       <c r="F27" s="1">
         <v>4</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>137원</v>
+      </c>
       <c r="J27" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
+      <c r="K27" s="39" t="str">
+        <f>COUNTIFS($C$4:$C$39,$J27,$B$4:$B$39,"&gt;="&amp;K$25,$B$4:$B$39,"&lt;"&amp;K$26)&amp;"명"</f>
+        <v>1명</v>
+      </c>
+      <c r="L27" s="39" t="str">
+        <f t="shared" ref="L27:P27" si="4">COUNTIFS($C$4:$C$39,$J27,$B$4:$B$39,"&gt;="&amp;L$25,$B$4:$B$39,"&lt;"&amp;L$26)&amp;"명"</f>
+        <v>2명</v>
+      </c>
+      <c r="M27" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>4명</v>
+      </c>
+      <c r="N27" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>0명</v>
+      </c>
+      <c r="O27" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>1명</v>
+      </c>
+      <c r="P27" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>1명</v>
+      </c>
+      <c r="Q27" s="39" t="str">
+        <f>COUNTIFS($C$4:$C$39,$J27,$B$4:$B$39,"&gt;="&amp;Q$25,$B$4:$B$39,"&lt;"&amp;Q$26)&amp;"명"</f>
+        <v>0명</v>
+      </c>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="1">
@@ -7102,25 +7462,55 @@
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-남자</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>450원</v>
+      </c>
       <c r="J28" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
+      <c r="K28" s="39" t="str">
+        <f t="shared" ref="K28:Q30" si="5">COUNTIFS($C$4:$C$39,$J28,$B$4:$B$39,"&gt;="&amp;K$25,$B$4:$B$39,"&lt;"&amp;K$26)&amp;"명"</f>
+        <v>1명</v>
+      </c>
+      <c r="L28" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>0명</v>
+      </c>
+      <c r="M28" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>3명</v>
+      </c>
+      <c r="N28" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>0명</v>
+      </c>
+      <c r="O28" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>1명</v>
+      </c>
+      <c r="P28" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>3명</v>
+      </c>
+      <c r="Q28" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>0명</v>
+      </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="1">
@@ -7129,25 +7519,55 @@
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-여자</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
       <c r="F29" s="1">
         <v>5</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>450원</v>
+      </c>
       <c r="J29" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+      <c r="K29" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>0명</v>
+      </c>
+      <c r="L29" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>2명</v>
+      </c>
+      <c r="M29" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>1명</v>
+      </c>
+      <c r="N29" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>0명</v>
+      </c>
+      <c r="O29" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>3명</v>
+      </c>
+      <c r="P29" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>0명</v>
+      </c>
+      <c r="Q29" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>1명</v>
+      </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="1">
@@ -7156,25 +7576,55 @@
       <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-남자</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
       <c r="F30" s="1">
         <v>21</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>900원</v>
+      </c>
       <c r="J30" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
+      <c r="K30" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>1명</v>
+      </c>
+      <c r="L30" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>2명</v>
+      </c>
+      <c r="M30" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>4명</v>
+      </c>
+      <c r="N30" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>0명</v>
+      </c>
+      <c r="O30" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>1명</v>
+      </c>
+      <c r="P30" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>2명</v>
+      </c>
+      <c r="Q30" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v>2명</v>
+      </c>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="1">
@@ -7183,15 +7633,24 @@
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>14200</v>
+      </c>
       <c r="F31" s="1">
         <v>18</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>142원</v>
+      </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="1">
@@ -7200,15 +7659,24 @@
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-남자</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>12800</v>
+      </c>
       <c r="F32" s="1">
         <v>9</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>128원</v>
+      </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="1">
@@ -7217,15 +7685,24 @@
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>기본형-여자</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
       <c r="F33" s="1">
         <v>7</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="1">
@@ -7234,15 +7711,24 @@
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-남자</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>13100</v>
+      </c>
       <c r="F34" s="1">
         <v>9</v>
       </c>
       <c r="G34" s="1">
         <v>2</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>262원</v>
+      </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="1">
@@ -7251,15 +7737,24 @@
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>43900</v>
+      </c>
       <c r="F35" s="1">
         <v>20</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>439원</v>
+      </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="1">
@@ -7268,15 +7763,24 @@
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>14200</v>
+      </c>
       <c r="F36" s="1">
         <v>12</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>284원</v>
+      </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="1">
@@ -7285,15 +7789,24 @@
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>14200</v>
+      </c>
       <c r="F37" s="1">
         <v>21</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="1">
@@ -7302,15 +7815,24 @@
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>34900</v>
+      </c>
       <c r="F38" s="1">
         <v>23</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>없음</v>
+      </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="1">
@@ -7319,15 +7841,24 @@
       <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>추가보장-여자</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>34900</v>
+      </c>
       <c r="F39" s="1">
         <v>9</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>349원</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7337,7 +7868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8821,11 +9352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -8908,7 +9439,10 @@
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="str">
+        <f>IF(ISERROR(MATCH(B4,$M$4:$M$7,0)),"아니오","예")</f>
+        <v>예</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
@@ -8918,11 +9452,17 @@
       <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="str">
+        <f>IFERROR(REPLACE(VLOOKUP(G4,$P$4:$Q$9,2,0),5,2,"○●"),"")</f>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I4" s="3">
         <v>612700</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="str">
+        <f>LEFT(E4,2)&amp;"("&amp;COUNTIF($E$4:$E$42,E4)&amp;")"</f>
+        <v>일반(11)</v>
+      </c>
       <c r="M4" s="28" t="s">
         <v>28</v>
       </c>
@@ -8944,7 +9484,10 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="str">
+        <f t="shared" ref="D5:D42" si="0">IF(ISERROR(MATCH(B5,$M$4:$M$7,0)),"아니오","예")</f>
+        <v>예</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
@@ -8954,11 +9497,17 @@
       <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="str">
+        <f t="shared" ref="H5:H42" si="1">IFERROR(REPLACE(VLOOKUP(G5,$P$4:$Q$9,2,0),5,2,"○●"),"")</f>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I5" s="3">
         <v>13000</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="str">
+        <f t="shared" ref="J5:J42" si="2">LEFT(E5,2)&amp;"("&amp;COUNTIF($E$4:$E$42,E5)&amp;")"</f>
+        <v>신용(14)</v>
+      </c>
       <c r="M5" s="28" t="s">
         <v>14</v>
       </c>
@@ -8980,7 +9529,10 @@
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
@@ -8990,11 +9542,17 @@
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I6" s="3">
         <v>46000</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
       <c r="M6" s="29" t="s">
         <v>34</v>
       </c>
@@ -9016,7 +9574,10 @@
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
@@ -9026,11 +9587,17 @@
       <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I7" s="3">
         <v>3000</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>현금(5)</v>
+      </c>
       <c r="M7" s="29" t="s">
         <v>30</v>
       </c>
@@ -9052,7 +9619,10 @@
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
@@ -9062,11 +9632,17 @@
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I8" s="3">
         <v>536790</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
@@ -9084,7 +9660,10 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
@@ -9094,11 +9673,17 @@
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I9" s="3">
         <v>1738200</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
@@ -9116,7 +9701,10 @@
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
@@ -9126,11 +9714,17 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I10" s="3">
         <v>23520</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
@@ -9144,7 +9738,10 @@
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
@@ -9154,11 +9751,17 @@
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I11" s="3">
         <v>58600</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
@@ -9172,7 +9775,10 @@
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
@@ -9182,11 +9788,17 @@
       <c r="G12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I12" s="3">
         <v>117840</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
       <c r="M12" s="27" t="s">
         <v>97</v>
       </c>
@@ -9204,7 +9816,10 @@
       <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>아니오</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
@@ -9214,11 +9829,17 @@
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I13" s="3">
         <v>220000</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>지정(4)</v>
+      </c>
       <c r="M13" s="26" t="s">
         <v>98</v>
       </c>
@@ -9240,7 +9861,10 @@
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>아니오</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
@@ -9250,17 +9874,32 @@
       <c r="G14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I14" s="3">
         <v>44700</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
       <c r="M14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="N14" s="31">
+        <f>IFERROR(ROUNDUP(AVERAGEIFS($I$4:$I$42,$E$4:$E$42,$M14,$F$4:$F$42,N$13),-2),"")</f>
+        <v>4948700</v>
+      </c>
+      <c r="O14" s="31">
+        <f t="shared" ref="O14:P14" si="3">IFERROR(ROUNDUP(AVERAGEIFS($I$4:$I$42,$E$4:$E$42,$M14,$F$4:$F$42,O$13),-2),"")</f>
+        <v>79900</v>
+      </c>
+      <c r="P14" s="31">
+        <f t="shared" si="3"/>
+        <v>30600</v>
+      </c>
       <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="2:17">
@@ -9270,7 +9909,10 @@
       <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>아니오</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
@@ -9280,17 +9922,32 @@
       <c r="G15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I15" s="3">
         <v>88400</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
       <c r="M15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
+      <c r="N15" s="31">
+        <f t="shared" ref="N15:P16" si="4">IFERROR(ROUNDUP(AVERAGEIFS($I$4:$I$42,$E$4:$E$42,$M15,$F$4:$F$42,N$13),-2),"")</f>
+        <v>189000</v>
+      </c>
+      <c r="O15" s="31">
+        <f t="shared" si="4"/>
+        <v>94700</v>
+      </c>
+      <c r="P15" s="31">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
       <c r="Q15" s="27"/>
     </row>
     <row r="16" spans="2:17">
@@ -9300,7 +9957,10 @@
       <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>아니오</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
@@ -9310,17 +9970,32 @@
       <c r="G16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I16" s="3">
         <v>107190</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
       <c r="M16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="N16" s="31">
+        <f t="shared" si="4"/>
+        <v>130900</v>
+      </c>
+      <c r="O16" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P16" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="2:17">
@@ -9330,7 +10005,10 @@
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
@@ -9340,11 +10018,17 @@
       <c r="G17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I17" s="3">
         <v>360600</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
       <c r="O17" s="27"/>
@@ -9358,7 +10042,10 @@
       <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
@@ -9368,11 +10055,17 @@
       <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I18" s="3">
         <v>145000</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>현금(5)</v>
+      </c>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
@@ -9386,7 +10079,10 @@
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
@@ -9396,11 +10092,17 @@
       <c r="G19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I19" s="3">
         <v>231000</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>현금(5)</v>
+      </c>
       <c r="M19" s="32" t="s">
         <v>100</v>
       </c>
@@ -9416,7 +10118,10 @@
       <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
@@ -9426,11 +10131,17 @@
       <c r="G20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I20" s="3">
         <v>50620</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
       <c r="M20" s="26" t="s">
         <v>101</v>
       </c>
@@ -9447,7 +10158,10 @@
       <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
@@ -9457,15 +10171,24 @@
       <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I21" s="3">
         <v>46360</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>직불(5)</v>
+      </c>
       <c r="M21" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="33"/>
+      <c r="N21" s="33" t="str">
+        <f>REPT("▣",COUNTIF($C$4:$C$42,M21)/COUNTA($C$4:$C$42)*10)&amp;"("&amp;TEXT(COUNTIF($C$4:$C$42,M21)/COUNTA($C$4:$C$42),"0.00%")&amp;")"</f>
+        <v>▣▣▣▣(41.03%)</v>
+      </c>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
     </row>
@@ -9476,7 +10199,10 @@
       <c r="C22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>32</v>
       </c>
@@ -9486,15 +10212,24 @@
       <c r="G22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I22" s="3">
         <v>143040</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>직불(5)</v>
+      </c>
       <c r="M22" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="33"/>
+      <c r="N22" s="33" t="str">
+        <f t="shared" ref="N22:N24" si="5">REPT("▣",COUNTIF($C$4:$C$42,M22)/COUNTA($C$4:$C$42)*10)&amp;"("&amp;TEXT(COUNTIF($C$4:$C$42,M22)/COUNTA($C$4:$C$42),"0.00%")&amp;")"</f>
+        <v>▣(10.26%)</v>
+      </c>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
     </row>
@@ -9505,7 +10240,10 @@
       <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>32</v>
       </c>
@@ -9515,15 +10253,24 @@
       <c r="G23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I23" s="3">
         <v>138660</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>직불(5)</v>
+      </c>
       <c r="M23" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="33"/>
+      <c r="N23" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>▣▣(23.08%)</v>
+      </c>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
     </row>
@@ -9534,7 +10281,10 @@
       <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E24" s="4" t="s">
         <v>32</v>
       </c>
@@ -9544,15 +10294,24 @@
       <c r="G24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I24" s="3">
         <v>239250</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>직불(5)</v>
+      </c>
       <c r="M24" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="N24" s="33"/>
+      <c r="N24" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>▣(15.38%)</v>
+      </c>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
     </row>
@@ -9563,7 +10322,10 @@
       <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
@@ -9573,11 +10335,17 @@
       <c r="G25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6792</v>
+      </c>
       <c r="I25" s="3">
         <v>4000</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>직불(5)</v>
+      </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="4" t="s">
@@ -9586,7 +10354,10 @@
       <c r="C26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
       </c>
@@ -9596,11 +10367,17 @@
       <c r="G26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6794</v>
+      </c>
       <c r="I26" s="3">
         <v>81970</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="4" t="s">
@@ -9609,7 +10386,10 @@
       <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
@@ -9619,11 +10399,17 @@
       <c r="G27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I27" s="3">
         <v>15000</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="4" t="s">
@@ -9632,7 +10418,10 @@
       <c r="C28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E28" s="4" t="s">
         <v>18</v>
       </c>
@@ -9642,11 +10431,17 @@
       <c r="G28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I28" s="3">
         <v>111980</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="4" t="s">
@@ -9655,7 +10450,10 @@
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>18</v>
       </c>
@@ -9665,11 +10463,17 @@
       <c r="G29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I29" s="3">
         <v>213200</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="4" t="s">
@@ -9678,7 +10482,10 @@
       <c r="C30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E30" s="4" t="s">
         <v>26</v>
       </c>
@@ -9688,11 +10495,17 @@
       <c r="G30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I30" s="3">
         <v>110000</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>지정(4)</v>
+      </c>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="4" t="s">
@@ -9701,7 +10514,10 @@
       <c r="C31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E31" s="4" t="s">
         <v>26</v>
       </c>
@@ -9711,11 +10527,17 @@
       <c r="G31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I31" s="3">
         <v>240000</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>지정(4)</v>
+      </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="4" t="s">
@@ -9724,7 +10546,10 @@
       <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E32" s="4" t="s">
         <v>26</v>
       </c>
@@ -9734,11 +10559,17 @@
       <c r="G32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I32" s="3">
         <v>600000</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>지정(4)</v>
+      </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4" t="s">
@@ -9747,7 +10578,10 @@
       <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
@@ -9757,11 +10591,17 @@
       <c r="G33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I33" s="3">
         <v>62340</v>
       </c>
-      <c r="J33" s="8"/>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>현금(5)</v>
+      </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="4" t="s">
@@ -9770,7 +10610,10 @@
       <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
       </c>
@@ -9780,11 +10623,17 @@
       <c r="G34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I34" s="3">
         <v>213020</v>
       </c>
-      <c r="J34" s="8"/>
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>현금(5)</v>
+      </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="4" t="s">
@@ -9793,7 +10642,10 @@
       <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E35" s="4" t="s">
         <v>18</v>
       </c>
@@ -9803,11 +10655,17 @@
       <c r="G35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I35" s="3">
         <v>1925602</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="4" t="s">
@@ -9816,7 +10674,10 @@
       <c r="C36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E36" s="4" t="s">
         <v>18</v>
       </c>
@@ -9826,11 +10687,17 @@
       <c r="G36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6791</v>
+      </c>
       <c r="I36" s="3">
         <v>2638488</v>
       </c>
-      <c r="J36" s="8"/>
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="4" t="s">
@@ -9839,7 +10706,10 @@
       <c r="C37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E37" s="4" t="s">
         <v>18</v>
       </c>
@@ -9849,11 +10719,17 @@
       <c r="G37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I37" s="3">
         <v>10725504</v>
       </c>
-      <c r="J37" s="8"/>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="4" t="s">
@@ -9862,7 +10738,10 @@
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E38" s="4" t="s">
         <v>18</v>
       </c>
@@ -9872,11 +10751,17 @@
       <c r="G38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I38" s="3">
         <v>12127516</v>
       </c>
-      <c r="J38" s="8"/>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="4" t="s">
@@ -9885,7 +10770,10 @@
       <c r="C39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E39" s="4" t="s">
         <v>18</v>
       </c>
@@ -9895,11 +10783,17 @@
       <c r="G39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I39" s="3">
         <v>8000</v>
       </c>
-      <c r="J39" s="8"/>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="4" t="s">
@@ -9908,7 +10802,10 @@
       <c r="C40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E40" s="4" t="s">
         <v>18</v>
       </c>
@@ -9918,11 +10815,17 @@
       <c r="G40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6790</v>
+      </c>
       <c r="I40" s="3">
         <v>60100</v>
       </c>
-      <c r="J40" s="8"/>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>신용(14)</v>
+      </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="4" t="s">
@@ -9931,7 +10834,10 @@
       <c r="C41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E41" s="4" t="s">
         <v>16</v>
       </c>
@@ -9941,11 +10847,17 @@
       <c r="G41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I41" s="3">
         <v>59400</v>
       </c>
-      <c r="J41" s="8"/>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="4" t="s">
@@ -9954,7 +10866,10 @@
       <c r="C42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>예</v>
+      </c>
       <c r="E42" s="4" t="s">
         <v>16</v>
       </c>
@@ -9964,11 +10879,17 @@
       <c r="G42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>123-○●-6793</v>
+      </c>
       <c r="I42" s="3">
         <v>103400</v>
       </c>
-      <c r="J42" s="8"/>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>일반(11)</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -9977,7 +10898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -11526,11 +12447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:R50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -11616,7 +12537,7 @@
       <c r="D4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="40" t="str">
+      <c r="E4" s="6" t="str">
         <f>TEXT(EDATE(F4,-2),"YY/MM/DD(AAA)")</f>
         <v>20/11/04(수)</v>
       </c>
@@ -11629,7 +12550,7 @@
       <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="I4" s="41" t="str">
+      <c r="I4" s="40" t="str">
         <f>IFERROR(REPT("♠",QUOTIENT(G4/H4,10%))&amp;REPT("♤",10-QUOTIENT(G4/H4,10%)),"초과")</f>
         <v>초과</v>
       </c>
@@ -11639,7 +12560,7 @@
       <c r="L4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>130</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -11666,7 +12587,7 @@
       <c r="D5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="40" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" ref="E5:E40" si="1">TEXT(EDATE(F5,-2),"YY/MM/DD(AAA)")</f>
         <v>20/11/04(수)</v>
       </c>
@@ -11679,7 +12600,7 @@
       <c r="H5" s="7">
         <v>10</v>
       </c>
-      <c r="I5" s="41" t="str">
+      <c r="I5" s="40" t="str">
         <f t="shared" ref="I5:I40" si="2">IFERROR(REPT("♠",QUOTIENT(G5/H5,10%))&amp;REPT("♤",10-QUOTIENT(G5/H5,10%)),"초과")</f>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -11701,7 +12622,7 @@
       <c r="D6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="40" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/11/11(수)</v>
       </c>
@@ -11714,7 +12635,7 @@
       <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="I6" s="41" t="str">
+      <c r="I6" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -11736,7 +12657,7 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="40" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/11/21(토)</v>
       </c>
@@ -11749,7 +12670,7 @@
       <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="I7" s="41" t="str">
+      <c r="I7" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -11771,7 +12692,7 @@
       <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="40" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/12/09(수)</v>
       </c>
@@ -11784,7 +12705,7 @@
       <c r="H8" s="7">
         <v>10</v>
       </c>
-      <c r="I8" s="41" t="str">
+      <c r="I8" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -11806,7 +12727,7 @@
       <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="40" t="str">
+      <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/12/11(금)</v>
       </c>
@@ -11819,7 +12740,7 @@
       <c r="H9" s="7">
         <v>15</v>
       </c>
-      <c r="I9" s="41" t="str">
+      <c r="I9" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♤♤</v>
       </c>
@@ -11835,7 +12756,7 @@
       <c r="D10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="40" t="str">
+      <c r="E10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/12/11(금)</v>
       </c>
@@ -11848,7 +12769,7 @@
       <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="I10" s="41" t="str">
+      <c r="I10" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -11867,7 +12788,7 @@
       <c r="D11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="40" t="str">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/01/15(금)</v>
       </c>
@@ -11880,7 +12801,7 @@
       <c r="H11" s="7">
         <v>14</v>
       </c>
-      <c r="I11" s="41" t="str">
+      <c r="I11" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♤♤♤</v>
       </c>
@@ -11902,7 +12823,7 @@
       <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="40" t="str">
+      <c r="E12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/01/16(토)</v>
       </c>
@@ -11915,7 +12836,7 @@
       <c r="H12" s="7">
         <v>15</v>
       </c>
-      <c r="I12" s="41" t="str">
+      <c r="I12" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -11938,7 +12859,7 @@
       <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="40" t="str">
+      <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/01/21(목)</v>
       </c>
@@ -11951,7 +12872,7 @@
       <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="I13" s="41" t="str">
+      <c r="I13" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -11959,7 +12880,7 @@
         <v>60</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f>TEXT(SUMIF($C$4:$C$40,K13,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
+        <f t="shared" ref="L13:L16" si="3">TEXT(SUMIF($C$4:$C$40,K13,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
         <v>22.01%</v>
       </c>
     </row>
@@ -11974,7 +12895,7 @@
       <c r="D14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="40" t="str">
+      <c r="E14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/02/21(일)</v>
       </c>
@@ -11987,7 +12908,7 @@
       <c r="H14" s="7">
         <v>14</v>
       </c>
-      <c r="I14" s="41" t="str">
+      <c r="I14" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♤♤</v>
       </c>
@@ -11995,7 +12916,7 @@
         <v>59</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f>TEXT(SUMIF($C$4:$C$40,K14,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
+        <f t="shared" si="3"/>
         <v>10.27%</v>
       </c>
     </row>
@@ -12010,7 +12931,7 @@
       <c r="D15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="40" t="str">
+      <c r="E15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/02/21(일)</v>
       </c>
@@ -12023,7 +12944,7 @@
       <c r="H15" s="7">
         <v>12</v>
       </c>
-      <c r="I15" s="41" t="str">
+      <c r="I15" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♤♤♤♤♤</v>
       </c>
@@ -12031,7 +12952,7 @@
         <v>52</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f>TEXT(SUMIF($C$4:$C$40,K15,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
+        <f t="shared" si="3"/>
         <v>23.90%</v>
       </c>
     </row>
@@ -12046,7 +12967,7 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="40" t="str">
+      <c r="E16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/02/28(일)</v>
       </c>
@@ -12059,7 +12980,7 @@
       <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="I16" s="41" t="str">
+      <c r="I16" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12067,7 +12988,7 @@
         <v>57</v>
       </c>
       <c r="L16" s="4" t="str">
-        <f>TEXT(SUMIF($C$4:$C$40,K16,$G$4:$G$40)/SUM($G$4:$G$40),"0.00%")</f>
+        <f t="shared" si="3"/>
         <v>18.66%</v>
       </c>
     </row>
@@ -12082,7 +13003,7 @@
       <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="40" t="str">
+      <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/03/06(토)</v>
       </c>
@@ -12095,7 +13016,7 @@
       <c r="H17" s="7">
         <v>15</v>
       </c>
-      <c r="I17" s="41" t="str">
+      <c r="I17" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12112,7 +13033,7 @@
       <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="40" t="str">
+      <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/03/15(월)</v>
       </c>
@@ -12125,7 +13046,7 @@
       <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="I18" s="41" t="str">
+      <c r="I18" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♤♤</v>
       </c>
@@ -12142,7 +13063,7 @@
       <c r="D19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="40" t="str">
+      <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/03/16(화)</v>
       </c>
@@ -12155,7 +13076,7 @@
       <c r="H19" s="7">
         <v>15</v>
       </c>
-      <c r="I19" s="41" t="str">
+      <c r="I19" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12172,7 +13093,7 @@
       <c r="D20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="40" t="str">
+      <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/03/29(월)</v>
       </c>
@@ -12185,7 +13106,7 @@
       <c r="H20" s="7">
         <v>12</v>
       </c>
-      <c r="I20" s="41" t="str">
+      <c r="I20" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -12202,7 +13123,7 @@
       <c r="D21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="40" t="str">
+      <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/04/04(일)</v>
       </c>
@@ -12215,7 +13136,7 @@
       <c r="H21" s="7">
         <v>14</v>
       </c>
-      <c r="I21" s="41" t="str">
+      <c r="I21" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12232,7 +13153,7 @@
       <c r="D22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="40" t="str">
+      <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/04/08(목)</v>
       </c>
@@ -12245,7 +13166,7 @@
       <c r="H22" s="7">
         <v>14</v>
       </c>
-      <c r="I22" s="41" t="str">
+      <c r="I22" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12262,7 +13183,7 @@
       <c r="D23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="40" t="str">
+      <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/04/29(목)</v>
       </c>
@@ -12275,7 +13196,7 @@
       <c r="H23" s="7">
         <v>12</v>
       </c>
-      <c r="I23" s="41" t="str">
+      <c r="I23" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12292,7 +13213,7 @@
       <c r="D24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="40" t="str">
+      <c r="E24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/05/08(토)</v>
       </c>
@@ -12305,7 +13226,7 @@
       <c r="H24" s="7">
         <v>13</v>
       </c>
-      <c r="I24" s="41" t="str">
+      <c r="I24" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -12322,7 +13243,7 @@
       <c r="D25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="40" t="str">
+      <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/05/11(화)</v>
       </c>
@@ -12335,7 +13256,7 @@
       <c r="H25" s="7">
         <v>15</v>
       </c>
-      <c r="I25" s="41" t="str">
+      <c r="I25" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -12352,7 +13273,7 @@
       <c r="D26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="40" t="str">
+      <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/05/15(토)</v>
       </c>
@@ -12365,7 +13286,7 @@
       <c r="H26" s="7">
         <v>12</v>
       </c>
-      <c r="I26" s="41" t="str">
+      <c r="I26" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12382,7 +13303,7 @@
       <c r="D27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="40" t="str">
+      <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/06/15(화)</v>
       </c>
@@ -12395,7 +13316,7 @@
       <c r="H27" s="7">
         <v>11</v>
       </c>
-      <c r="I27" s="41" t="str">
+      <c r="I27" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12412,7 +13333,7 @@
       <c r="D28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="40" t="str">
+      <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/06/16(수)</v>
       </c>
@@ -12425,7 +13346,7 @@
       <c r="H28" s="7">
         <v>15</v>
       </c>
-      <c r="I28" s="41" t="str">
+      <c r="I28" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12442,7 +13363,7 @@
       <c r="D29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="40" t="str">
+      <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/06/16(수)</v>
       </c>
@@ -12455,7 +13376,7 @@
       <c r="H29" s="7">
         <v>13</v>
       </c>
-      <c r="I29" s="41" t="str">
+      <c r="I29" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♤♤♤♤♤♤♤♤♤</v>
       </c>
@@ -12472,7 +13393,7 @@
       <c r="D30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="40" t="str">
+      <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/07/15(목)</v>
       </c>
@@ -12485,7 +13406,7 @@
       <c r="H30" s="7">
         <v>10</v>
       </c>
-      <c r="I30" s="41" t="str">
+      <c r="I30" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12502,7 +13423,7 @@
       <c r="D31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="40" t="str">
+      <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/07/16(금)</v>
       </c>
@@ -12515,7 +13436,7 @@
       <c r="H31" s="7">
         <v>11</v>
       </c>
-      <c r="I31" s="41" t="str">
+      <c r="I31" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♤♤♤♤♤♤♤♤</v>
       </c>
@@ -12532,7 +13453,7 @@
       <c r="D32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="40" t="str">
+      <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/07/21(수)</v>
       </c>
@@ -12545,7 +13466,7 @@
       <c r="H32" s="7">
         <v>14</v>
       </c>
-      <c r="I32" s="41" t="str">
+      <c r="I32" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12562,7 +13483,7 @@
       <c r="D33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/08/04(수)</v>
       </c>
@@ -12575,7 +13496,7 @@
       <c r="H33" s="7">
         <v>11</v>
       </c>
-      <c r="I33" s="41" t="str">
+      <c r="I33" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -12592,7 +13513,7 @@
       <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="40" t="str">
+      <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/08/21(토)</v>
       </c>
@@ -12605,7 +13526,7 @@
       <c r="H34" s="7">
         <v>15</v>
       </c>
-      <c r="I34" s="41" t="str">
+      <c r="I34" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -12622,7 +13543,7 @@
       <c r="D35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="40" t="str">
+      <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/08/22(일)</v>
       </c>
@@ -12635,7 +13556,7 @@
       <c r="H35" s="7">
         <v>10</v>
       </c>
-      <c r="I35" s="41" t="str">
+      <c r="I35" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♤♤♤♤♤</v>
       </c>
@@ -12652,7 +13573,7 @@
       <c r="D36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="40" t="str">
+      <c r="E36" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/09/04(토)</v>
       </c>
@@ -12665,7 +13586,7 @@
       <c r="H36" s="7">
         <v>11</v>
       </c>
-      <c r="I36" s="41" t="str">
+      <c r="I36" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♠♠</v>
       </c>
@@ -12682,7 +13603,7 @@
       <c r="D37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="40" t="str">
+      <c r="E37" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/09/11(토)</v>
       </c>
@@ -12695,7 +13616,7 @@
       <c r="H37" s="7">
         <v>13</v>
       </c>
-      <c r="I37" s="41" t="str">
+      <c r="I37" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -12712,7 +13633,7 @@
       <c r="D38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="40" t="str">
+      <c r="E38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/09/29(수)</v>
       </c>
@@ -12725,7 +13646,7 @@
       <c r="H38" s="7">
         <v>15</v>
       </c>
-      <c r="I38" s="41" t="str">
+      <c r="I38" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♠♤</v>
       </c>
@@ -12742,7 +13663,7 @@
       <c r="D39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="40" t="str">
+      <c r="E39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/10/04(월)</v>
       </c>
@@ -12755,7 +13676,7 @@
       <c r="H39" s="7">
         <v>10</v>
       </c>
-      <c r="I39" s="41" t="str">
+      <c r="I39" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♠♤</v>
       </c>
@@ -12772,7 +13693,7 @@
       <c r="D40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="40" t="str">
+      <c r="E40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/10/11(월)</v>
       </c>
@@ -12785,7 +13706,7 @@
       <c r="H40" s="7">
         <v>10</v>
       </c>
-      <c r="I40" s="41" t="str">
+      <c r="I40" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -12829,14 +13750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B2:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -12922,7 +13843,7 @@
       <c r="D4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="40" t="str">
+      <c r="E4" s="6" t="str">
         <f>TEXT(EDATE(F4,-2),"YY/MM/DD(AAA)")</f>
         <v>20/11/04(수)</v>
       </c>
@@ -12935,7 +13856,7 @@
       <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="I4" s="41" t="str">
+      <c r="I4" s="40" t="str">
         <f>IFERROR(REPT("♠",QUOTIENT(G4/H4,10%))&amp;REPT("♤",10-QUOTIENT(G4/H4,10%)),"초과")</f>
         <v>초과</v>
       </c>
@@ -12945,7 +13866,7 @@
       <c r="L4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>130</v>
       </c>
       <c r="O4" s="4" t="s">
@@ -12972,7 +13893,7 @@
       <c r="D5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="40" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" ref="E5:E40" si="1">TEXT(EDATE(F5,-2),"YY/MM/DD(AAA)")</f>
         <v>20/11/04(수)</v>
       </c>
@@ -12985,7 +13906,7 @@
       <c r="H5" s="7">
         <v>10</v>
       </c>
-      <c r="I5" s="41" t="str">
+      <c r="I5" s="40" t="str">
         <f t="shared" ref="I5:I40" si="2">IFERROR(REPT("♠",QUOTIENT(G5/H5,10%))&amp;REPT("♤",10-QUOTIENT(G5/H5,10%)),"초과")</f>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -13007,7 +13928,7 @@
       <c r="D6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="40" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/11/11(수)</v>
       </c>
@@ -13020,7 +13941,7 @@
       <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="I6" s="41" t="str">
+      <c r="I6" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13042,7 +13963,7 @@
       <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="40" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/11/21(토)</v>
       </c>
@@ -13055,7 +13976,7 @@
       <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="I7" s="41" t="str">
+      <c r="I7" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -13077,7 +13998,7 @@
       <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="40" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/12/09(수)</v>
       </c>
@@ -13090,7 +14011,7 @@
       <c r="H8" s="7">
         <v>10</v>
       </c>
-      <c r="I8" s="41" t="str">
+      <c r="I8" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13112,7 +14033,7 @@
       <c r="D9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="40" t="str">
+      <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/12/11(금)</v>
       </c>
@@ -13125,7 +14046,7 @@
       <c r="H9" s="7">
         <v>15</v>
       </c>
-      <c r="I9" s="41" t="str">
+      <c r="I9" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♤♤</v>
       </c>
@@ -13141,7 +14062,7 @@
       <c r="D10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="40" t="str">
+      <c r="E10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>20/12/11(금)</v>
       </c>
@@ -13154,7 +14075,7 @@
       <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="I10" s="41" t="str">
+      <c r="I10" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13173,7 +14094,7 @@
       <c r="D11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="40" t="str">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/01/15(금)</v>
       </c>
@@ -13186,7 +14107,7 @@
       <c r="H11" s="7">
         <v>14</v>
       </c>
-      <c r="I11" s="41" t="str">
+      <c r="I11" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♤♤♤</v>
       </c>
@@ -13208,7 +14129,7 @@
       <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="40" t="str">
+      <c r="E12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/01/16(토)</v>
       </c>
@@ -13221,7 +14142,7 @@
       <c r="H12" s="7">
         <v>15</v>
       </c>
-      <c r="I12" s="41" t="str">
+      <c r="I12" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -13244,7 +14165,7 @@
       <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="40" t="str">
+      <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/01/21(목)</v>
       </c>
@@ -13257,7 +14178,7 @@
       <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="I13" s="41" t="str">
+      <c r="I13" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -13280,7 +14201,7 @@
       <c r="D14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="40" t="str">
+      <c r="E14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/02/21(일)</v>
       </c>
@@ -13293,7 +14214,7 @@
       <c r="H14" s="7">
         <v>14</v>
       </c>
-      <c r="I14" s="41" t="str">
+      <c r="I14" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♤♤</v>
       </c>
@@ -13316,7 +14237,7 @@
       <c r="D15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="40" t="str">
+      <c r="E15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/02/21(일)</v>
       </c>
@@ -13329,7 +14250,7 @@
       <c r="H15" s="7">
         <v>12</v>
       </c>
-      <c r="I15" s="41" t="str">
+      <c r="I15" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♤♤♤♤♤</v>
       </c>
@@ -13352,7 +14273,7 @@
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="40" t="str">
+      <c r="E16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/02/28(일)</v>
       </c>
@@ -13365,7 +14286,7 @@
       <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="I16" s="41" t="str">
+      <c r="I16" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13388,7 +14309,7 @@
       <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="40" t="str">
+      <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/03/06(토)</v>
       </c>
@@ -13401,7 +14322,7 @@
       <c r="H17" s="7">
         <v>15</v>
       </c>
-      <c r="I17" s="41" t="str">
+      <c r="I17" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13418,7 +14339,7 @@
       <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="40" t="str">
+      <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/03/15(월)</v>
       </c>
@@ -13431,7 +14352,7 @@
       <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="I18" s="41" t="str">
+      <c r="I18" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♤♤</v>
       </c>
@@ -13448,7 +14369,7 @@
       <c r="D19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="40" t="str">
+      <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/03/16(화)</v>
       </c>
@@ -13461,7 +14382,7 @@
       <c r="H19" s="7">
         <v>15</v>
       </c>
-      <c r="I19" s="41" t="str">
+      <c r="I19" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13478,7 +14399,7 @@
       <c r="D20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="40" t="str">
+      <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/03/29(월)</v>
       </c>
@@ -13491,7 +14412,7 @@
       <c r="H20" s="7">
         <v>12</v>
       </c>
-      <c r="I20" s="41" t="str">
+      <c r="I20" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -13508,7 +14429,7 @@
       <c r="D21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="40" t="str">
+      <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/04/04(일)</v>
       </c>
@@ -13521,7 +14442,7 @@
       <c r="H21" s="7">
         <v>14</v>
       </c>
-      <c r="I21" s="41" t="str">
+      <c r="I21" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13538,7 +14459,7 @@
       <c r="D22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="40" t="str">
+      <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/04/08(목)</v>
       </c>
@@ -13551,7 +14472,7 @@
       <c r="H22" s="7">
         <v>14</v>
       </c>
-      <c r="I22" s="41" t="str">
+      <c r="I22" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13568,7 +14489,7 @@
       <c r="D23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="40" t="str">
+      <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/04/29(목)</v>
       </c>
@@ -13581,7 +14502,7 @@
       <c r="H23" s="7">
         <v>12</v>
       </c>
-      <c r="I23" s="41" t="str">
+      <c r="I23" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13598,7 +14519,7 @@
       <c r="D24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="40" t="str">
+      <c r="E24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/05/08(토)</v>
       </c>
@@ -13611,7 +14532,7 @@
       <c r="H24" s="7">
         <v>13</v>
       </c>
-      <c r="I24" s="41" t="str">
+      <c r="I24" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -13628,7 +14549,7 @@
       <c r="D25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="40" t="str">
+      <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/05/11(화)</v>
       </c>
@@ -13641,7 +14562,7 @@
       <c r="H25" s="7">
         <v>15</v>
       </c>
-      <c r="I25" s="41" t="str">
+      <c r="I25" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♤♤♤♤♤♤</v>
       </c>
@@ -13658,7 +14579,7 @@
       <c r="D26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="40" t="str">
+      <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/05/15(토)</v>
       </c>
@@ -13671,7 +14592,7 @@
       <c r="H26" s="7">
         <v>12</v>
       </c>
-      <c r="I26" s="41" t="str">
+      <c r="I26" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13688,7 +14609,7 @@
       <c r="D27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="40" t="str">
+      <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/06/15(화)</v>
       </c>
@@ -13701,7 +14622,7 @@
       <c r="H27" s="7">
         <v>11</v>
       </c>
-      <c r="I27" s="41" t="str">
+      <c r="I27" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13718,7 +14639,7 @@
       <c r="D28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="40" t="str">
+      <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/06/16(수)</v>
       </c>
@@ -13731,7 +14652,7 @@
       <c r="H28" s="7">
         <v>15</v>
       </c>
-      <c r="I28" s="41" t="str">
+      <c r="I28" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13748,7 +14669,7 @@
       <c r="D29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="40" t="str">
+      <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/06/16(수)</v>
       </c>
@@ -13761,7 +14682,7 @@
       <c r="H29" s="7">
         <v>13</v>
       </c>
-      <c r="I29" s="41" t="str">
+      <c r="I29" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♤♤♤♤♤♤♤♤♤</v>
       </c>
@@ -13778,7 +14699,7 @@
       <c r="D30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="40" t="str">
+      <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/07/15(목)</v>
       </c>
@@ -13791,7 +14712,7 @@
       <c r="H30" s="7">
         <v>10</v>
       </c>
-      <c r="I30" s="41" t="str">
+      <c r="I30" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13808,7 +14729,7 @@
       <c r="D31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="40" t="str">
+      <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/07/16(금)</v>
       </c>
@@ -13821,7 +14742,7 @@
       <c r="H31" s="7">
         <v>11</v>
       </c>
-      <c r="I31" s="41" t="str">
+      <c r="I31" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♤♤♤♤♤♤♤♤</v>
       </c>
@@ -13838,7 +14759,7 @@
       <c r="D32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="40" t="str">
+      <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/07/21(수)</v>
       </c>
@@ -13851,7 +14772,7 @@
       <c r="H32" s="7">
         <v>14</v>
       </c>
-      <c r="I32" s="41" t="str">
+      <c r="I32" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -13868,7 +14789,7 @@
       <c r="D33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/08/04(수)</v>
       </c>
@@ -13881,7 +14802,7 @@
       <c r="H33" s="7">
         <v>11</v>
       </c>
-      <c r="I33" s="41" t="str">
+      <c r="I33" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -13898,7 +14819,7 @@
       <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="40" t="str">
+      <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/08/21(토)</v>
       </c>
@@ -13911,7 +14832,7 @@
       <c r="H34" s="7">
         <v>15</v>
       </c>
-      <c r="I34" s="41" t="str">
+      <c r="I34" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -13928,7 +14849,7 @@
       <c r="D35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="40" t="str">
+      <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/08/22(일)</v>
       </c>
@@ -13941,7 +14862,7 @@
       <c r="H35" s="7">
         <v>10</v>
       </c>
-      <c r="I35" s="41" t="str">
+      <c r="I35" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♤♤♤♤♤</v>
       </c>
@@ -13958,7 +14879,7 @@
       <c r="D36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="40" t="str">
+      <c r="E36" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/09/04(토)</v>
       </c>
@@ -13971,7 +14892,7 @@
       <c r="H36" s="7">
         <v>11</v>
       </c>
-      <c r="I36" s="41" t="str">
+      <c r="I36" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♠♠</v>
       </c>
@@ -13988,7 +14909,7 @@
       <c r="D37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="40" t="str">
+      <c r="E37" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/09/11(토)</v>
       </c>
@@ -14001,7 +14922,7 @@
       <c r="H37" s="7">
         <v>13</v>
       </c>
-      <c r="I37" s="41" t="str">
+      <c r="I37" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♤♤♤♤♤♤♤</v>
       </c>
@@ -14018,7 +14939,7 @@
       <c r="D38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="40" t="str">
+      <c r="E38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/09/29(수)</v>
       </c>
@@ -14031,7 +14952,7 @@
       <c r="H38" s="7">
         <v>15</v>
       </c>
-      <c r="I38" s="41" t="str">
+      <c r="I38" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♠♤</v>
       </c>
@@ -14048,7 +14969,7 @@
       <c r="D39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="40" t="str">
+      <c r="E39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/10/04(월)</v>
       </c>
@@ -14061,7 +14982,7 @@
       <c r="H39" s="7">
         <v>10</v>
       </c>
-      <c r="I39" s="41" t="str">
+      <c r="I39" s="40" t="str">
         <f t="shared" si="2"/>
         <v>♠♠♠♠♠♠♠♠♠♤</v>
       </c>
@@ -14078,7 +14999,7 @@
       <c r="D40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="40" t="str">
+      <c r="E40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>21/10/11(월)</v>
       </c>
@@ -14091,7 +15012,7 @@
       <c r="H40" s="7">
         <v>10</v>
       </c>
-      <c r="I40" s="41" t="str">
+      <c r="I40" s="40" t="str">
         <f t="shared" si="2"/>
         <v>초과</v>
       </c>
@@ -14135,10 +15056,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -14185,13 +15106,13 @@
       <c r="H3" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>164</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="48" t="s">
         <v>167</v>
       </c>
     </row>
@@ -14206,18 +15127,18 @@
       <c r="E4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>1890000</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
       <c r="K4" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="47" t="s">
         <v>168</v>
       </c>
     </row>
@@ -14232,14 +15153,14 @@
       <c r="E5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>1037000</v>
       </c>
       <c r="G5" s="4">
         <v>8</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
       <c r="K5" s="35" t="s">
         <v>136</v>
       </c>
@@ -14258,14 +15179,14 @@
       <c r="E6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>1871000</v>
       </c>
       <c r="G6" s="4">
         <v>8</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
       <c r="K6" s="35" t="s">
         <v>138</v>
       </c>
@@ -14284,14 +15205,14 @@
       <c r="E7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>1222230</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
       <c r="K7" s="35" t="s">
         <v>141</v>
       </c>
@@ -14310,14 +15231,14 @@
       <c r="E8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <v>1419000</v>
       </c>
       <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
       <c r="K8" s="35" t="s">
         <v>144</v>
       </c>
@@ -14336,14 +15257,14 @@
       <c r="E9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <v>1649000</v>
       </c>
       <c r="G9" s="4">
         <v>8</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="4"/>
@@ -14356,14 +15277,14 @@
       <c r="E10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>1889000</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="4"/>
@@ -14376,14 +15297,14 @@
       <c r="E11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>2867000</v>
       </c>
       <c r="G11" s="4">
         <v>7</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
       <c r="K11" t="s">
         <v>166</v>
       </c>
@@ -14399,30 +15320,30 @@
       <c r="E12" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>939000</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="K12" s="44" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="K12" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="46">
         <v>0</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="46">
         <v>500000</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="46">
         <v>1000000</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="46">
         <v>1500000</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>2000000</v>
       </c>
     </row>
@@ -14437,30 +15358,30 @@
       <c r="E13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <v>1890000</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="K13" s="46" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="K13" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <v>0.01</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="44">
         <v>1.2E-2</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="44">
         <v>1.4E-2</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="44">
         <v>1.6E-2</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="44">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -14475,30 +15396,30 @@
       <c r="E14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <v>743000</v>
       </c>
       <c r="G14" s="4">
         <v>6</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="K14" s="46" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="K14" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <v>0.01</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="44">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="44">
         <v>1.6E-2</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="44">
         <v>1.9E-2</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="44">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -14513,30 +15434,30 @@
       <c r="E15" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>239000</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="K15" s="46" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="K15" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="44">
         <v>0.02</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="44">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="44">
         <v>2.4E-2</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="44">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="44">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -14551,30 +15472,30 @@
       <c r="E16" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <v>1037000</v>
       </c>
       <c r="G16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="K16" s="46" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="K16" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <v>0.01</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="44">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="44">
         <v>1.2E-2</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="44">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="44">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -14589,30 +15510,30 @@
       <c r="E17" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="42">
         <v>1262000</v>
       </c>
       <c r="G17" s="4">
         <v>7</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="K17" s="46" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="K17" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="44">
         <v>0.02</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="44">
         <v>2.3E-2</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="44">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="44">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="44">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -14627,14 +15548,14 @@
       <c r="E18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <v>689000</v>
       </c>
       <c r="G18" s="4">
         <v>3</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="4"/>
@@ -14647,14 +15568,14 @@
       <c r="E19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="42">
         <v>859000</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="52"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="4"/>
@@ -14667,14 +15588,14 @@
       <c r="E20" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="42">
         <v>1419000</v>
       </c>
       <c r="G20" s="4">
         <v>6</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="4"/>
@@ -14687,14 +15608,14 @@
       <c r="E21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="42">
         <v>1179000</v>
       </c>
       <c r="G21" s="4">
         <v>7</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="4"/>
@@ -14707,14 +15628,14 @@
       <c r="E22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="42">
         <v>1889000</v>
       </c>
       <c r="G22" s="4">
         <v>6</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="4"/>
@@ -14727,14 +15648,14 @@
       <c r="E23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="42">
         <v>2867000</v>
       </c>
       <c r="G23" s="4">
         <v>8</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="4"/>
@@ -14747,14 +15668,14 @@
       <c r="E24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="42">
         <v>613000</v>
       </c>
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="4"/>
@@ -14767,14 +15688,14 @@
       <c r="E25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="42">
         <v>781000</v>
       </c>
       <c r="G25" s="4">
         <v>2</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="4"/>
@@ -14787,14 +15708,14 @@
       <c r="E26" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="42">
         <v>845000</v>
       </c>
       <c r="G26" s="4">
         <v>6</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="4"/>
@@ -14807,14 +15728,14 @@
       <c r="E27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="42">
         <v>239000</v>
       </c>
       <c r="G27" s="4">
         <v>3</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="4"/>
@@ -14827,14 +15748,14 @@
       <c r="E28" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="42">
         <v>1037000</v>
       </c>
       <c r="G28" s="4">
         <v>2</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="4"/>
@@ -14847,14 +15768,14 @@
       <c r="E29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="42">
         <v>1871000</v>
       </c>
       <c r="G29" s="4">
         <v>4</v>
       </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="4"/>
@@ -14867,14 +15788,14 @@
       <c r="E30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <v>1262000</v>
       </c>
       <c r="G30" s="4">
         <v>6</v>
       </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="4"/>
@@ -14887,14 +15808,14 @@
       <c r="E31" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="42">
         <v>1419000</v>
       </c>
       <c r="G31" s="4">
         <v>8</v>
       </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="4"/>
@@ -14907,14 +15828,14 @@
       <c r="E32" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="42">
         <v>859000</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="4"/>
@@ -14927,14 +15848,14 @@
       <c r="E33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="42">
         <v>613000</v>
       </c>
       <c r="G33" s="4">
         <v>4</v>
       </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="4"/>
@@ -14947,14 +15868,14 @@
       <c r="E34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <v>939000</v>
       </c>
       <c r="G34" s="4">
         <v>8</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="4"/>
@@ -14967,17 +15888,17 @@
       <c r="E35" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="42">
         <v>1169000</v>
       </c>
       <c r="G35" s="4">
         <v>7</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
     </row>
   </sheetData>
-  <sortState ref="B4:I35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I35">
     <sortCondition ref="C4:C35"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -14986,7 +15907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -15039,13 +15960,13 @@
       <c r="H3" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>164</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="48" t="s">
         <v>167</v>
       </c>
     </row>
@@ -15063,24 +15984,24 @@
       <c r="E4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>1890000</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="50">
         <f t="shared" ref="H4:H35" si="0">ROUNDDOWN(PMT(4%/12,G4,-F4),-1)</f>
         <v>381780</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="51">
         <f t="shared" ref="I4:I35" ca="1" si="1">F4*OFFSET($K$12,MATCH(D4,$K$13:$K$17,0),MATCH(F4,$L$12:$P$12,1))</f>
         <v>30240</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="47" t="s">
         <v>168</v>
       </c>
     </row>
@@ -15098,17 +16019,17 @@
       <c r="E5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>1037000</v>
       </c>
       <c r="G5" s="4">
         <v>8</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="50">
         <f t="shared" si="0"/>
         <v>131570</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>24888</v>
       </c>
@@ -15133,17 +16054,17 @@
       <c r="E6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>1871000</v>
       </c>
       <c r="G6" s="4">
         <v>8</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="50">
         <f t="shared" si="0"/>
         <v>237390</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>48646</v>
       </c>
@@ -15168,17 +16089,17 @@
       <c r="E7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>1222230</v>
       </c>
       <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="50">
         <f t="shared" si="0"/>
         <v>308100</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>29333.52</v>
       </c>
@@ -15203,17 +16124,17 @@
       <c r="E8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <v>1419000</v>
       </c>
       <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="50">
         <f t="shared" si="0"/>
         <v>713040</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>22704</v>
       </c>
@@ -15238,17 +16159,17 @@
       <c r="E9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <v>1649000</v>
       </c>
       <c r="G9" s="4">
         <v>8</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="50">
         <f t="shared" si="0"/>
         <v>209220</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>31331</v>
       </c>
@@ -15267,17 +16188,17 @@
       <c r="E10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>1889000</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="50">
         <f t="shared" si="0"/>
         <v>949220</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>54781</v>
       </c>
@@ -15296,17 +16217,17 @@
       <c r="E11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>2867000</v>
       </c>
       <c r="G11" s="4">
         <v>7</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="50">
         <f t="shared" si="0"/>
         <v>415050</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>91744</v>
       </c>
@@ -15328,36 +16249,36 @@
       <c r="E12" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>939000</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="50">
         <f t="shared" si="0"/>
         <v>236700</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>21597</v>
       </c>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="46">
         <v>0</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="46">
         <v>500000</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="46">
         <v>1000000</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="46">
         <v>1500000</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="46">
         <v>2000000</v>
       </c>
     </row>
@@ -15375,36 +16296,36 @@
       <c r="E13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <v>1890000</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="50">
         <f t="shared" si="0"/>
         <v>949720</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>30240</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="44">
         <v>0.01</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="44">
         <v>1.2E-2</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="44">
         <v>1.4E-2</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="44">
         <v>1.6E-2</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="44">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -15422,36 +16343,36 @@
       <c r="E14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <v>743000</v>
       </c>
       <c r="G14" s="4">
         <v>6</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="50">
         <f t="shared" si="0"/>
         <v>125280</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>8172.9999999999991</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <v>0.01</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="44">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="44">
         <v>1.6E-2</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="44">
         <v>1.9E-2</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="44">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -15469,36 +16390,36 @@
       <c r="E15" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>239000</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="50">
         <f t="shared" si="0"/>
         <v>120090</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>2390</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="44">
         <v>0.02</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="44">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="44">
         <v>2.4E-2</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="44">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="44">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
@@ -15516,36 +16437,36 @@
       <c r="E16" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <v>1037000</v>
       </c>
       <c r="G16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="50">
         <f t="shared" si="0"/>
         <v>261410</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>24888</v>
       </c>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <v>0.01</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="44">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="44">
         <v>1.2E-2</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="44">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="44">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -15563,36 +16484,36 @@
       <c r="E17" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="42">
         <v>1262000</v>
       </c>
       <c r="G17" s="4">
         <v>7</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="50">
         <f t="shared" si="0"/>
         <v>182690</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>30288</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="44">
         <v>0.02</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="44">
         <v>2.3E-2</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="44">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="44">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="44">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -15610,17 +16531,17 @@
       <c r="E18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <v>689000</v>
       </c>
       <c r="G18" s="4">
         <v>3</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="50">
         <f t="shared" si="0"/>
         <v>231190</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>15158</v>
       </c>
@@ -15639,17 +16560,17 @@
       <c r="E19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="42">
         <v>859000</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="50">
         <f t="shared" si="0"/>
         <v>431640</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>11167</v>
       </c>
@@ -15668,17 +16589,17 @@
       <c r="E20" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="42">
         <v>1419000</v>
       </c>
       <c r="G20" s="4">
         <v>6</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="50">
         <f t="shared" si="0"/>
         <v>239260</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>22704</v>
       </c>
@@ -15697,17 +16618,17 @@
       <c r="E21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="42">
         <v>1179000</v>
       </c>
       <c r="G21" s="4">
         <v>7</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="50">
         <f t="shared" si="0"/>
         <v>170680</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>18864</v>
       </c>
@@ -15726,17 +16647,17 @@
       <c r="E22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="42">
         <v>1889000</v>
       </c>
       <c r="G22" s="4">
         <v>6</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="50">
         <f t="shared" si="0"/>
         <v>318510</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>54781</v>
       </c>
@@ -15755,17 +16676,17 @@
       <c r="E23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="42">
         <v>2867000</v>
       </c>
       <c r="G23" s="4">
         <v>8</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="50">
         <f t="shared" si="0"/>
         <v>363770</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>91744</v>
       </c>
@@ -15784,17 +16705,17 @@
       <c r="E24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="42">
         <v>613000</v>
       </c>
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="50">
         <f t="shared" si="0"/>
         <v>205690</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>14099</v>
       </c>
@@ -15813,17 +16734,17 @@
       <c r="E25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="42">
         <v>781000</v>
       </c>
       <c r="G25" s="4">
         <v>2</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="50">
         <f t="shared" si="0"/>
         <v>392450</v>
       </c>
-      <c r="I25" s="52">
+      <c r="I25" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>8591</v>
       </c>
@@ -15842,17 +16763,17 @@
       <c r="E26" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="42">
         <v>845000</v>
       </c>
       <c r="G26" s="4">
         <v>6</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="50">
         <f t="shared" si="0"/>
         <v>142480</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>9295</v>
       </c>
@@ -15871,17 +16792,17 @@
       <c r="E27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="42">
         <v>239000</v>
       </c>
       <c r="G27" s="4">
         <v>3</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="50">
         <f t="shared" si="0"/>
         <v>80190</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>2390</v>
       </c>
@@ -15900,17 +16821,17 @@
       <c r="E28" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="42">
         <v>1037000</v>
       </c>
       <c r="G28" s="4">
         <v>2</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="50">
         <f t="shared" si="0"/>
         <v>521090</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>24888</v>
       </c>
@@ -15929,17 +16850,17 @@
       <c r="E29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="42">
         <v>1871000</v>
       </c>
       <c r="G29" s="4">
         <v>4</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="50">
         <f t="shared" si="0"/>
         <v>471650</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>48646</v>
       </c>
@@ -15958,17 +16879,17 @@
       <c r="E30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <v>1262000</v>
       </c>
       <c r="G30" s="4">
         <v>6</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="50">
         <f t="shared" si="0"/>
         <v>212790</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>30288</v>
       </c>
@@ -15987,17 +16908,17 @@
       <c r="E31" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="42">
         <v>1419000</v>
       </c>
       <c r="G31" s="4">
         <v>8</v>
       </c>
-      <c r="H31" s="51">
+      <c r="H31" s="50">
         <f t="shared" si="0"/>
         <v>180040</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>22704</v>
       </c>
@@ -16016,17 +16937,17 @@
       <c r="E32" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="42">
         <v>859000</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
-      <c r="H32" s="51">
+      <c r="H32" s="50">
         <f t="shared" si="0"/>
         <v>216540</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>11167</v>
       </c>
@@ -16045,17 +16966,17 @@
       <c r="E33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="42">
         <v>613000</v>
       </c>
       <c r="G33" s="4">
         <v>4</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="50">
         <f t="shared" si="0"/>
         <v>154520</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>14099</v>
       </c>
@@ -16074,17 +16995,17 @@
       <c r="E34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <v>939000</v>
       </c>
       <c r="G34" s="4">
         <v>8</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="50">
         <f t="shared" si="0"/>
         <v>119140</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>21597</v>
       </c>
@@ -16103,17 +17024,17 @@
       <c r="E35" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="42">
         <v>1169000</v>
       </c>
       <c r="G35" s="4">
         <v>7</v>
       </c>
-      <c r="H35" s="51">
+      <c r="H35" s="50">
         <f t="shared" si="0"/>
         <v>169230</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I35" s="51">
         <f t="shared" ca="1" si="1"/>
         <v>30394</v>
       </c>
